--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="850">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71722" uniqueCount="850">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31169,7 +31169,7 @@
         <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>90</v>
@@ -31184,7 +31184,7 @@
         <v>90</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>90</v>
@@ -31199,7 +31199,7 @@
         <v>90</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>90</v>
@@ -31214,7 +31214,7 @@
         <v>90</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>90</v>
@@ -31238,7 +31238,7 @@
         <v>90</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>90</v>
@@ -31265,7 +31265,7 @@
         <v>90</v>
       </c>
       <c r="AL6" s="5" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7">
@@ -31883,7 +31883,7 @@
         <v>90</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>90</v>
@@ -31898,7 +31898,7 @@
         <v>90</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>90</v>
@@ -32002,16 +32002,16 @@
         <v>90</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>90</v>
@@ -32077,7 +32077,7 @@
         <v>90</v>
       </c>
       <c r="AL13" s="5" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14">
@@ -32085,13 +32085,13 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>90</v>
@@ -32121,7 +32121,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -32145,7 +32145,7 @@
         <v>90</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>90</v>
@@ -32187,7 +32187,7 @@
         <v>90</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="AK14" s="5" t="s">
         <v>90</v>
@@ -32570,7 +32570,7 @@
         <v>90</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>90</v>
@@ -32594,10 +32594,10 @@
         <v>90</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>90</v>
@@ -32606,7 +32606,7 @@
         <v>90</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>90</v>
@@ -32642,10 +32642,10 @@
         <v>90</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>90</v>
@@ -32654,7 +32654,7 @@
         <v>90</v>
       </c>
       <c r="AK18" s="5" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="AL18" s="5" t="s">
         <v>90</v>
@@ -32790,7 +32790,7 @@
         <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>90</v>
@@ -32799,7 +32799,7 @@
         <v>90</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>90</v>
@@ -32808,7 +32808,7 @@
         <v>90</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>90</v>
@@ -32832,13 +32832,13 @@
         <v>90</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>90</v>
@@ -32856,28 +32856,28 @@
         <v>90</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="AB20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="AF20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AG20" s="5" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>90</v>
@@ -33367,7 +33367,7 @@
         <v>90</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>90</v>
@@ -33382,10 +33382,10 @@
         <v>90</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>90</v>
@@ -33421,7 +33421,7 @@
         <v>90</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>90</v>
@@ -33430,7 +33430,7 @@
         <v>90</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33466,7 +33466,7 @@
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="AL25" s="5" t="s">
         <v>90</v>
@@ -33549,7 +33549,7 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>90</v>
@@ -33567,7 +33567,7 @@
         <v>90</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>90</v>
@@ -33709,31 +33709,31 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>90</v>
@@ -33754,13 +33754,13 @@
         <v>90</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>90</v>
@@ -33769,13 +33769,13 @@
         <v>90</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33784,10 +33784,10 @@
         <v>90</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
         <v>90</v>
@@ -33796,25 +33796,25 @@
         <v>90</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>90</v>
@@ -33986,7 +33986,7 @@
         <v>90</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>90</v>
@@ -34022,10 +34022,10 @@
         <v>90</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AE30" s="5" t="s">
         <v>90</v>
@@ -34034,13 +34034,13 @@
         <v>90</v>
       </c>
       <c r="AG30" s="5" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="AJ30" s="5" t="s">
         <v>90</v>
@@ -34985,115 +34985,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
     </row>
     <row r="40">
@@ -35101,115 +35101,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35217,115 +35217,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>109</v>
+        <v>305</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>109</v>
+        <v>335</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>109</v>
+        <v>364</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>109</v>
+        <v>400</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>109</v>
+        <v>439</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>109</v>
+        <v>481</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>109</v>
+        <v>499</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>109</v>
+        <v>515</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>109</v>
+        <v>562</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>109</v>
+        <v>583</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>109</v>
+        <v>620</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>109</v>
+        <v>651</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>109</v>
+        <v>687</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>109</v>
+        <v>724</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>109</v>
+        <v>757</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>109</v>
+        <v>787</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>109</v>
+        <v>818</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>109</v>
+        <v>837</v>
       </c>
     </row>
     <row r="42">
